--- a/2DGame/taches.xlsx
+++ b/2DGame/taches.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoît\Desktop\PROGRAMMATION\JAVA\JeuBenoitKienan\2DGame\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="17940" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>LISTE DE TACHES</t>
   </si>
@@ -69,13 +65,16 @@
   </si>
   <si>
     <t>Benoît</t>
+  </si>
+  <si>
+    <t>Corriger le décalage avec le pointeur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -197,6 +202,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,27 +475,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="38.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -497,8 +503,8 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -506,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -514,15 +520,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,7 +536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,7 +544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -554,7 +560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -562,7 +568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -578,91 +584,95 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>

--- a/2DGame/taches.xlsx
+++ b/2DGame/taches.xlsx
@@ -55,9 +55,6 @@
     <t>Ajout de véhicule</t>
   </si>
   <si>
-    <t>Gestion de l'inventaire</t>
-  </si>
-  <si>
     <t>Kienan</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Corriger le décalage avec le pointeur</t>
+  </si>
+  <si>
+    <t>Gestion de l'inventaire (JInternalFrame)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -199,10 +199,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,7 +487,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -496,12 +497,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1">
@@ -517,15 +518,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -533,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -541,7 +542,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -549,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -557,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -565,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,23 +574,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/2DGame/taches.xlsx
+++ b/2DGame/taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="17940" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="17610" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -199,10 +199,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,7 +487,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -496,12 +497,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" thickBot="1">
@@ -513,18 +514,18 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -545,10 +546,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -585,10 +586,10 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
